--- a/results/mp/logistic/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -82,63 +76,63 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -154,16 +148,16 @@
     <t>join</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>care</t>
@@ -541,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7397260273972602</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -723,16 +717,16 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +767,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>110</v>
-      </c>
       <c r="M6">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.417989417989418</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="C8">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.392156862745098</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3643410852713178</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C10">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2348993288590604</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,136 +1014,88 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7875</v>
+      </c>
+      <c r="L11">
+        <v>126</v>
+      </c>
+      <c r="M11">
+        <v>126</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="L12">
+        <v>83</v>
+      </c>
+      <c r="M12">
+        <v>83</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.796875</v>
-      </c>
-      <c r="L11">
-        <v>102</v>
-      </c>
-      <c r="M11">
-        <v>102</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.07539682539682539</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>233</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.7804878048780488</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>64</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>64</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.006447453255963894</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
-      </c>
-      <c r="F13">
-        <v>0.8</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3082</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>21</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
@@ -1175,16 +1121,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L18">
         <v>35</v>
       </c>
-      <c r="K18">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L18">
-        <v>108</v>
-      </c>
       <c r="M18">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7586206896551724</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,12 +1246,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.7142857142857143</v>
@@ -1331,16 +1277,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,12 +1350,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.6571428571428571</v>
@@ -1435,16 +1381,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,12 +1402,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>0.6153846153846154</v>
@@ -1487,16 +1433,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.611764705882353</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M27">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,12 +1454,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>0.6046511627906976</v>
@@ -1539,16 +1485,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5728813559322034</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L29">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5648535564853556</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L30">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1638,47 +1584,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L33">
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>45</v>
-      </c>
-      <c r="M33">
-        <v>45</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.392156862745098</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1690,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3287671232876712</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1716,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.3205128205128205</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1742,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
